--- a/auca/sem-1/acct-8112-ancounting/exam/mid sem exm/q4 SELF SOLUTION!.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/exam/mid sem exm/q4 SELF SOLUTION!.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27960" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1302,7 +1302,7 @@
   <dimension ref="N2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
